--- a/biology/Botanique/Ponctuation_(botanique)/Ponctuation_(botanique).xlsx
+++ b/biology/Botanique/Ponctuation_(botanique)/Ponctuation_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, une ponctuation est une ouverture permettant le passage de divers éléments d’une cellule à l’autre. Les ponctuations sont constituées d'un ensemble de plasmodesmes. Elles permettent en particulier le passage de la sève entre les vaisseaux. Les ponctuations sont simples chez les angiospermes et aréolées chez les gymnospermes.
  Portail de la botanique                     </t>
